--- a/biology/Zoologie/Charadriiformes/Charadriiformes.xlsx
+++ b/biology/Zoologie/Charadriiformes/Charadriiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charadriiformes sont un ordre d'oiseaux aquatiques comprenant 19 familles, réparties en trois sous-ordres. Dans la classification de Sibley-Ahlquist, il est intégré au grand ordre des Ciconiiformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 5.1, 2015)[1] (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 5.1, 2015) (ordre phylogénique) :
 Alcidae (10 genres, 23 espèces)
 Burhinidae (2 genres, 10 espèces)
 Charadriidae (12 genres, 67 espèces)
@@ -533,11 +547,11 @@
 Stercorariidae (1 genre, 7 espèces)
 Thinocoridae (2 genres, 4 espèces)
 Turnicidae (2 genres, 17 espèces)
-Selon la Paleobiology Database                   (29 avril 2023)[2], quatre familles fossiles sont référencées :
-†Cimolopterygidae Brodkorb, 1963[3]
-†Dakotornithidae Erickson, 1975[4]
-†Graculavidae Fürbringer, 1888[5]
-†Telmatornithidae Cracraft, 1972[6]</t>
+Selon la Paleobiology Database                   (29 avril 2023), quatre familles fossiles sont référencées :
+†Cimolopterygidae Brodkorb, 1963
+†Dakotornithidae Erickson, 1975
+†Graculavidae Fürbringer, 1888
+†Telmatornithidae Cracraft, 1972</t>
         </is>
       </c>
     </row>
